--- a/data/trans_orig/P13-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P13-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>404616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>380621</v>
+        <v>381652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>425714</v>
+        <v>428654</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6926676671237946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6515912925817912</v>
+        <v>0.653356304788582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.728786962167161</v>
+        <v>0.7338195636815654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>548</v>
@@ -765,19 +765,19 @@
         <v>571070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>540098</v>
+        <v>542778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>600910</v>
+        <v>603634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6191578384845817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5855776439620877</v>
+        <v>0.5884842053663526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6515107737456783</v>
+        <v>0.654463910207883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>943</v>
@@ -786,19 +786,19 @@
         <v>975685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>937701</v>
+        <v>938456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1015099</v>
+        <v>1015497</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6476615626353133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6224474917899488</v>
+        <v>0.6229485380540379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6738242709440186</v>
+        <v>0.6740888402171393</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>67986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54099</v>
+        <v>53694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86228</v>
+        <v>84633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.116386742409038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09261303965005255</v>
+        <v>0.09191900931606653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.147614704347203</v>
+        <v>0.1448837606726541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>107</v>
@@ -836,19 +836,19 @@
         <v>112026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93441</v>
+        <v>92965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133791</v>
+        <v>132412</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1214593799710974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1013094010794533</v>
+        <v>0.1007929655328578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.14505682989877</v>
+        <v>0.1435617313879826</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -857,19 +857,19 @@
         <v>180012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>156224</v>
+        <v>157157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>207479</v>
+        <v>207605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.119492444875993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.103701499527933</v>
+        <v>0.1043207694987726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1377248628089534</v>
+        <v>0.137808625220719</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>74613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61185</v>
+        <v>58825</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91166</v>
+        <v>92540</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1277311576146533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1047427779692074</v>
+        <v>0.1007041303053919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1560687689262185</v>
+        <v>0.1584203673856521</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -907,19 +907,19 @@
         <v>169384</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145867</v>
+        <v>143506</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193369</v>
+        <v>192869</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1836472349338301</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.158150482507656</v>
+        <v>0.1555907310441418</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2096516581467257</v>
+        <v>0.2091098729766135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>240</v>
@@ -928,19 +928,19 @@
         <v>243997</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>216499</v>
+        <v>215007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>278318</v>
+        <v>272814</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1619655568099528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.143712625598937</v>
+        <v>0.1427222120131496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1847478214450582</v>
+        <v>0.1810944490399245</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>19965</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11923</v>
+        <v>12564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30930</v>
+        <v>30855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0341782588869802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02041157291214284</v>
+        <v>0.02150840591976713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05294870008248986</v>
+        <v>0.05282042540649131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -978,19 +978,19 @@
         <v>34777</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23952</v>
+        <v>24832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47903</v>
+        <v>48177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03770576737423915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02596875882883545</v>
+        <v>0.02692274295610947</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05193654280094177</v>
+        <v>0.05223415902574761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -999,19 +999,19 @@
         <v>54742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40631</v>
+        <v>41787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70404</v>
+        <v>73254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03633796213347767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02697076364897921</v>
+        <v>0.02773857543882236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04673458580005164</v>
+        <v>0.04862602148663944</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>16961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9252</v>
+        <v>9812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26655</v>
+        <v>27482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02903617396553385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01583938609254181</v>
+        <v>0.01679724513426665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04563167908978025</v>
+        <v>0.04704692496873641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1049,19 +1049,19 @@
         <v>35076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24428</v>
+        <v>24775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47720</v>
+        <v>48127</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03802977923625165</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02648447947859234</v>
+        <v>0.02686074372815921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05173823838720674</v>
+        <v>0.05217934088986932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -1070,19 +1070,19 @@
         <v>52037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>39700</v>
+        <v>39206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70243</v>
+        <v>69299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0345424735452633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02635323824577483</v>
+        <v>0.02602486861785083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0466273373432592</v>
+        <v>0.04600072839689692</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>864070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>836493</v>
+        <v>837407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>890190</v>
+        <v>890841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8016278235576237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.776043632374099</v>
+        <v>0.7768915921469156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.825860478781741</v>
+        <v>0.8264642137155835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>738</v>
@@ -1195,19 +1195,19 @@
         <v>761185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>728363</v>
+        <v>732591</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>789365</v>
+        <v>788989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7197711848387963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6887343445757745</v>
+        <v>0.6927322480017589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7464172415602124</v>
+        <v>0.746061648786956</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1582</v>
@@ -1216,19 +1216,19 @@
         <v>1625255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1586734</v>
+        <v>1586172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1660782</v>
+        <v>1666379</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7610896538538261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7430506176120342</v>
+        <v>0.7427871847279324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7777266048733161</v>
+        <v>0.7803475272476115</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>118857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99282</v>
+        <v>100585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141630</v>
+        <v>142365</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1102675132921746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09210761281185879</v>
+        <v>0.09331646863597308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1313951791405893</v>
+        <v>0.1320774474598374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -1266,19 +1266,19 @@
         <v>136041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116911</v>
+        <v>118697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158209</v>
+        <v>158223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1286393740369138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1105502677741272</v>
+        <v>0.1122392729402609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1496010964859186</v>
+        <v>0.1496147924005706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -1287,19 +1287,19 @@
         <v>254898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227174</v>
+        <v>225906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285366</v>
+        <v>286334</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.119365878681975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1063830918914334</v>
+        <v>0.105789248347845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1336339374351015</v>
+        <v>0.1340869577671558</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>69468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54675</v>
+        <v>53008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88088</v>
+        <v>86265</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06444776547396483</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05072390007228503</v>
+        <v>0.04917778258276926</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08172195459919865</v>
+        <v>0.08003082952561101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1337,19 +1337,19 @@
         <v>122776</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101903</v>
+        <v>104733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>146444</v>
+        <v>146620</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1160961974178683</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09635832043359063</v>
+        <v>0.09903453888309927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1384765194128457</v>
+        <v>0.1386427494715136</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>187</v>
@@ -1358,19 +1358,19 @@
         <v>192244</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>168714</v>
+        <v>167717</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>218187</v>
+        <v>221615</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09002581182239665</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07900698120625842</v>
+        <v>0.0785398987084333</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1021748145941746</v>
+        <v>0.1037798595153861</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>11966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6137</v>
+        <v>6029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21515</v>
+        <v>21916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01110132534111087</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005693664164643764</v>
+        <v>0.005592983477625206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01996026342798441</v>
+        <v>0.02033204577870519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1408,19 +1408,19 @@
         <v>24709</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16179</v>
+        <v>16473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36337</v>
+        <v>35520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02336500237466808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01529858571170366</v>
+        <v>0.01557692638124757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03435958727056559</v>
+        <v>0.03358714124408924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1429,19 +1429,19 @@
         <v>36675</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26335</v>
+        <v>25395</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50306</v>
+        <v>50640</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01717471203961162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01233250783611425</v>
+        <v>0.01189217538334276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02355792632730951</v>
+        <v>0.02371437873197286</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>13534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7768</v>
+        <v>7193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24059</v>
+        <v>22663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0125555723351259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007206528360690234</v>
+        <v>0.006673000693464618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02232013346319148</v>
+        <v>0.02102480649898272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1479,19 +1479,19 @@
         <v>12826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6756</v>
+        <v>6715</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21562</v>
+        <v>21847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01212824133175348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006388321286649535</v>
+        <v>0.006349906401164546</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02038851288722053</v>
+        <v>0.02065877050697779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1500,19 +1500,19 @@
         <v>26360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17864</v>
+        <v>17540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38024</v>
+        <v>38214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01234394360219063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008365287410905798</v>
+        <v>0.008213836157558134</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01780643726953928</v>
+        <v>0.01789525280872787</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>935980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>908872</v>
+        <v>912280</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>959835</v>
+        <v>960116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8345083687081311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8103393804235194</v>
+        <v>0.8133777966183156</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8557775166352092</v>
+        <v>0.8560277506617149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>716</v>
@@ -1625,19 +1625,19 @@
         <v>719222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>689747</v>
+        <v>688627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>745763</v>
+        <v>747527</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7236070738524285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.693952033009037</v>
+        <v>0.6928254459078869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7503101637898993</v>
+        <v>0.7520844705425459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1635</v>
@@ -1646,19 +1646,19 @@
         <v>1655202</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1617651</v>
+        <v>1616352</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1692679</v>
+        <v>1693249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7824037013264313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7646539479030593</v>
+        <v>0.7640398211225677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8001188201030827</v>
+        <v>0.8003883080533346</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>106297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89064</v>
+        <v>87923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127803</v>
+        <v>126429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09477318364100762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07940875401608745</v>
+        <v>0.07839123592772283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1139477469433432</v>
+        <v>0.1127227076734618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>153</v>
@@ -1696,19 +1696,19 @@
         <v>159616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>138878</v>
+        <v>137001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183365</v>
+        <v>185755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1605892057839257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1397249958355583</v>
+        <v>0.1378365480046722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1844827931009397</v>
+        <v>0.1868871027523056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -1717,19 +1717,19 @@
         <v>265913</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237706</v>
+        <v>236051</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296723</v>
+        <v>299048</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1256954731111652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1123621314189885</v>
+        <v>0.1115799978160025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1402591808672675</v>
+        <v>0.14135830425481</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>57306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44241</v>
+        <v>41851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74250</v>
+        <v>72146</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05109304422942557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0394446624271623</v>
+        <v>0.0373135365112198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06620027667544513</v>
+        <v>0.06432428031591796</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1767,19 +1767,19 @@
         <v>79451</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63834</v>
+        <v>63609</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97793</v>
+        <v>97278</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07993503379223373</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06422294277964102</v>
+        <v>0.06399654950992563</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0983887624545724</v>
+        <v>0.09787065790491994</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -1788,19 +1788,19 @@
         <v>136756</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>115716</v>
+        <v>114531</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>160771</v>
+        <v>159867</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06464385330475622</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05469809126564727</v>
+        <v>0.05413811533505196</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07599552317627876</v>
+        <v>0.07556799829663412</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>14828</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8112</v>
+        <v>9093</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24138</v>
+        <v>24327</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01322081124480787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00723221051800451</v>
+        <v>0.008107202249470077</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0215212423705034</v>
+        <v>0.02168924898774106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1838,19 +1838,19 @@
         <v>23230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14882</v>
+        <v>15618</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34849</v>
+        <v>34842</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02337116748168318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01497269734980545</v>
+        <v>0.01571323012610866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03506171289344275</v>
+        <v>0.03505413958844405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1859,19 +1859,19 @@
         <v>38058</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27019</v>
+        <v>26328</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51036</v>
+        <v>51266</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0179897450630856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01277182685826344</v>
+        <v>0.01244526921299301</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02412451583657678</v>
+        <v>0.02423301577914554</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>7183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3053</v>
+        <v>2845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14586</v>
+        <v>13895</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006404592176627892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002722429966158888</v>
+        <v>0.002536599924805258</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01300473700819063</v>
+        <v>0.01238902220671199</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1909,19 +1909,19 @@
         <v>12422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6731</v>
+        <v>6716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21595</v>
+        <v>21068</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01249751908972887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006772300799157122</v>
+        <v>0.006757160966119324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02172672609276986</v>
+        <v>0.02119650235008865</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1930,19 +1930,19 @@
         <v>19605</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12491</v>
+        <v>12446</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30076</v>
+        <v>30259</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009267227194561667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005904296120498691</v>
+        <v>0.005883116152674867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01421697192200353</v>
+        <v>0.01430319925511543</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>356154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>340828</v>
+        <v>337153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>372876</v>
+        <v>372799</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.796407814153569</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7621388459791523</v>
+        <v>0.7539198572241812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8338020983680445</v>
+        <v>0.8336296437998805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>254</v>
@@ -2055,19 +2055,19 @@
         <v>253613</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>238037</v>
+        <v>236070</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269782</v>
+        <v>267929</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7433886483973385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.697733072585576</v>
+        <v>0.6919653216836219</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7907828786516722</v>
+        <v>0.7853507412291008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>601</v>
@@ -2076,19 +2076,19 @@
         <v>609767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>585583</v>
+        <v>585053</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>630632</v>
+        <v>631201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7734640182309597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7427882644739596</v>
+        <v>0.742115401973567</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7999313914894143</v>
+        <v>0.8006528062279498</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>41245</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29773</v>
+        <v>29594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55454</v>
+        <v>54137</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09223001118233246</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0665775874537118</v>
+        <v>0.06617714429659065</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1240037852695945</v>
+        <v>0.1210566183087545</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -2126,19 +2126,19 @@
         <v>37950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28336</v>
+        <v>27748</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>51189</v>
+        <v>50114</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1112373773095486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0830571291498115</v>
+        <v>0.08133371399988498</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1500446525016532</v>
+        <v>0.1468947918833907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>77</v>
@@ -2147,19 +2147,19 @@
         <v>79195</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>64973</v>
+        <v>64175</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>99240</v>
+        <v>97209</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1004553599449715</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08241502624002404</v>
+        <v>0.08140392259707704</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1258816260484073</v>
+        <v>0.123305243241617</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>36897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26212</v>
+        <v>26252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48612</v>
+        <v>50172</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08250607056528876</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05861447663872724</v>
+        <v>0.05870395937638216</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1087039121593236</v>
+        <v>0.1121918320532216</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -2197,19 +2197,19 @@
         <v>36762</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26644</v>
+        <v>26898</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48582</v>
+        <v>50639</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1077564447950556</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07809847169707221</v>
+        <v>0.07884253849779382</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1424031135567875</v>
+        <v>0.1484323928765311</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2218,19 +2218,19 @@
         <v>73659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57685</v>
+        <v>59328</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92733</v>
+        <v>91572</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09343305187542385</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07317126179170202</v>
+        <v>0.0752557059060886</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1176277611530218</v>
+        <v>0.1161556171541784</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>4983</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1863</v>
+        <v>1852</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10560</v>
+        <v>11716</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01114175222214816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004166489541411588</v>
+        <v>0.004141158366848929</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0236138545156754</v>
+        <v>0.02619915768583894</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2268,19 +2268,19 @@
         <v>9125</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3942</v>
+        <v>4005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18135</v>
+        <v>16985</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02674799406264576</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01155539736169862</v>
+        <v>0.01173807452574957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05315708677994599</v>
+        <v>0.04978513037683023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2289,19 +2289,19 @@
         <v>14108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7308</v>
+        <v>7790</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23449</v>
+        <v>25072</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01789528036239784</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00927052315111841</v>
+        <v>0.009880810935885869</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02974396033649546</v>
+        <v>0.03180288756795669</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>7922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3321</v>
+        <v>3440</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15726</v>
+        <v>16423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01771435187666162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007426115069436585</v>
+        <v>0.00769279001786824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03516533713507643</v>
+        <v>0.03672342731279373</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2339,19 +2339,19 @@
         <v>3708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8401</v>
+        <v>8593</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01086953543541158</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002792689476261526</v>
+        <v>0.002795531701560824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02462543109432457</v>
+        <v>0.02518910868142363</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2360,19 +2360,19 @@
         <v>11630</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5927</v>
+        <v>5881</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20236</v>
+        <v>21088</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01475228958624719</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007518456107478901</v>
+        <v>0.007459621678676696</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02566814790370528</v>
+        <v>0.02674899110619698</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>2560819</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2516915</v>
+        <v>2518493</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2612060</v>
+        <v>2605593</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7926196444183679</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7790307994380992</v>
+        <v>0.7795191504645265</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8084798446311406</v>
+        <v>0.8064782459414325</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2256</v>
@@ -2485,19 +2485,19 @@
         <v>2305090</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2252746</v>
+        <v>2247673</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2358795</v>
+        <v>2356777</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6953579563179932</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6795676893542735</v>
+        <v>0.6780374969595367</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7115585987469195</v>
+        <v>0.7109499907467126</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4761</v>
@@ -2506,19 +2506,19 @@
         <v>4865909</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4800406</v>
+        <v>4798641</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4942997</v>
+        <v>4941837</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7433637007137136</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7333568282777014</v>
+        <v>0.7330872830721881</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7551405118985517</v>
+        <v>0.7549633177182228</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>334385</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>299664</v>
+        <v>299568</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>368001</v>
+        <v>370296</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1034982846739255</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09275135485690543</v>
+        <v>0.09272167242547265</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1139028812749161</v>
+        <v>0.1146133993600674</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>434</v>
@@ -2556,19 +2556,19 @@
         <v>445633</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>408646</v>
+        <v>408232</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>486282</v>
+        <v>483677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1344303873869059</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1232728504872874</v>
+        <v>0.1231480132515953</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1466927824999323</v>
+        <v>0.1459069849679913</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>766</v>
@@ -2577,19 +2577,19 @@
         <v>780018</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>730523</v>
+        <v>725625</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>832998</v>
+        <v>839016</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1191631362681605</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1116017574171327</v>
+        <v>0.1108535393701806</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1272568396205742</v>
+        <v>0.1281762204680238</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>238283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>212262</v>
+        <v>211508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>270947</v>
+        <v>269851</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07375297249557247</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06569906718826354</v>
+        <v>0.06546540326553377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08386311811444543</v>
+        <v>0.08352365986618744</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>396</v>
@@ -2627,19 +2627,19 @@
         <v>408373</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>373543</v>
+        <v>373434</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>449762</v>
+        <v>448298</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1231904929454228</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1126838341796216</v>
+        <v>0.1126507616206674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.135676011663883</v>
+        <v>0.1352344812228486</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>634</v>
@@ -2648,19 +2648,19 @@
         <v>646656</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>595774</v>
+        <v>600414</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>696352</v>
+        <v>696539</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09878946704687504</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09101630346957826</v>
+        <v>0.09172510003939033</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1063814937263618</v>
+        <v>0.1064101385730261</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>51742</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38803</v>
+        <v>39698</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67104</v>
+        <v>68453</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01601507144880133</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01201014932870604</v>
+        <v>0.01228721035125834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0207698455377324</v>
+        <v>0.02118754133950379</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>87</v>
@@ -2698,19 +2698,19 @@
         <v>91841</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>75651</v>
+        <v>72960</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>113068</v>
+        <v>111800</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02770508104514156</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02282096161951186</v>
+        <v>0.02200933535643402</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03410829358843742</v>
+        <v>0.03372568726994536</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>137</v>
@@ -2719,19 +2719,19 @@
         <v>143583</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>121289</v>
+        <v>121488</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>168090</v>
+        <v>167024</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02193520779262019</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01852935920218986</v>
+        <v>0.01855970498998883</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02567911802223323</v>
+        <v>0.02551620344145297</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>45600</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34056</v>
+        <v>33750</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60710</v>
+        <v>60992</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01411402696333285</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0105409717481354</v>
+        <v>0.01044615345798242</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01879086145918458</v>
+        <v>0.01887797620725389</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>61</v>
@@ -2769,19 +2769,19 @@
         <v>64032</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47848</v>
+        <v>49598</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80647</v>
+        <v>81568</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01931608230453657</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01443386369780626</v>
+        <v>0.01496186259487263</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02432799124866161</v>
+        <v>0.02460609279764129</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>104</v>
@@ -2790,19 +2790,19 @@
         <v>109632</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90729</v>
+        <v>90574</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134705</v>
+        <v>134159</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01674848817863063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0138606353948889</v>
+        <v>0.01383690178976889</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02057879326993874</v>
+        <v>0.02049548636915645</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>746557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>715254</v>
+        <v>714905</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>777679</v>
+        <v>774397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.716494664191498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6864525556902182</v>
+        <v>0.6861177784116331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.746364266295508</v>
+        <v>0.7432138349632383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>584</v>
@@ -3155,19 +3155,19 @@
         <v>635060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>599298</v>
+        <v>600382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>666032</v>
+        <v>667809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5675709671763185</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5356088141190164</v>
+        <v>0.5365779222135241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5952513322402445</v>
+        <v>0.5968390900146666</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1286</v>
@@ -3176,19 +3176,19 @@
         <v>1381617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1336478</v>
+        <v>1334953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1423656</v>
+        <v>1424937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6393811222425998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6184917339595547</v>
+        <v>0.6177859842076028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6588358886434215</v>
+        <v>0.6594285043150223</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>104305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86207</v>
+        <v>86234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127518</v>
+        <v>126780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1001053205055197</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08273547902488315</v>
+        <v>0.08276140353912018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1223827398446766</v>
+        <v>0.1216745484074319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -3226,19 +3226,19 @@
         <v>141867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120794</v>
+        <v>120560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165287</v>
+        <v>169176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1267904708197727</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1079566050823545</v>
+        <v>0.1077481381456974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1477215309199189</v>
+        <v>0.1511971122315298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -3247,19 +3247,19 @@
         <v>246172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220185</v>
+        <v>214431</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>279128</v>
+        <v>276031</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1139230439398302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1018964419642197</v>
+        <v>0.09923394304103463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1291742072921681</v>
+        <v>0.1277407482654222</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>120895</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99766</v>
+        <v>101662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142327</v>
+        <v>144552</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1160266115490161</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09574912508411006</v>
+        <v>0.09756790368380423</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.136595771984536</v>
+        <v>0.1387316918518866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -3297,19 +3297,19 @@
         <v>179142</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158035</v>
+        <v>155433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>207610</v>
+        <v>205273</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1601045937052686</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.141240217062099</v>
+        <v>0.1389149126975592</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.185546731392597</v>
+        <v>0.1834583414729271</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>279</v>
@@ -3318,19 +3318,19 @@
         <v>300037</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>268196</v>
+        <v>269729</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>333568</v>
+        <v>334466</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1388504427736902</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1241151078605726</v>
+        <v>0.1248242739203872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.154367759184382</v>
+        <v>0.1547831682179609</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>46177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33195</v>
+        <v>34351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62383</v>
+        <v>64829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04431760354695893</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03185840886433384</v>
+        <v>0.03296739966215027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05987109564662947</v>
+        <v>0.06221846329545926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -3368,19 +3368,19 @@
         <v>103006</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85642</v>
+        <v>85118</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125065</v>
+        <v>124785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09205902715422273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07654039690721465</v>
+        <v>0.07607238333749734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.111774112030148</v>
+        <v>0.1115239622924058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -3389,19 +3389,19 @@
         <v>149183</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126001</v>
+        <v>126625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175844</v>
+        <v>174779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06903838570470784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0583105157075713</v>
+        <v>0.05859897714769071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08137682755508242</v>
+        <v>0.08088384467883612</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>24023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14920</v>
+        <v>15202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36108</v>
+        <v>37275</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02305580020700729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01431931168686085</v>
+        <v>0.01458946385794029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03465360353766576</v>
+        <v>0.03577415124469822</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -3439,19 +3439,19 @@
         <v>59834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44580</v>
+        <v>45949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76832</v>
+        <v>79368</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0534749411444175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03984265611134282</v>
+        <v>0.04106618182953992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06866692847038268</v>
+        <v>0.07093354903817004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>74</v>
@@ -3460,19 +3460,19 @@
         <v>83857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65998</v>
+        <v>66878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103865</v>
+        <v>105266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03880700533917193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03054239298780122</v>
+        <v>0.03094964045152641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04806655396579966</v>
+        <v>0.04871452163341638</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>739751</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>711186</v>
+        <v>710690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>764967</v>
+        <v>767537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7571096280284925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7278739308839736</v>
+        <v>0.7273667608483501</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7829168598739021</v>
+        <v>0.7855473021189603</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>631</v>
@@ -3585,19 +3585,19 @@
         <v>680126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>641565</v>
+        <v>645325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>710907</v>
+        <v>711451</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6221624896812766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5868878474736204</v>
+        <v>0.5903270778499811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6503202236593298</v>
+        <v>0.6508173896240445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1334</v>
@@ -3606,19 +3606,19 @@
         <v>1419877</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1374288</v>
+        <v>1371476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1460119</v>
+        <v>1460672</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6858523778410525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6638314397984477</v>
+        <v>0.6624731586450777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7052906598807015</v>
+        <v>0.7055577511692223</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>128220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108348</v>
+        <v>108021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152111</v>
+        <v>149748</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1312282081555139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1108905394412665</v>
+        <v>0.1105557417126865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1556802929957291</v>
+        <v>0.1532613405147642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -3656,19 +3656,19 @@
         <v>174048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152356</v>
+        <v>151640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201771</v>
+        <v>200862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1592148967010252</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.139371102141037</v>
+        <v>0.1387162003454177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1845755191339491</v>
+        <v>0.1837435877784948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>285</v>
@@ -3677,19 +3677,19 @@
         <v>302268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>271973</v>
+        <v>271691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>333787</v>
+        <v>337475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1460062500764495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1313726911871219</v>
+        <v>0.1312367188658995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.161231082135402</v>
+        <v>0.1630126222181631</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>69188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53010</v>
+        <v>53204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87211</v>
+        <v>87624</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07081181128012774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05425409445121317</v>
+        <v>0.05445276713107298</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08925725332162636</v>
+        <v>0.08967999411943191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>135</v>
@@ -3727,19 +3727,19 @@
         <v>142317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>121660</v>
+        <v>119434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165631</v>
+        <v>165961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1301881708498498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1112912329313969</v>
+        <v>0.1092553978912712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1515153555172422</v>
+        <v>0.1518168296473321</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>199</v>
@@ -3748,19 +3748,19 @@
         <v>211505</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>179970</v>
+        <v>184124</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>240411</v>
+        <v>245259</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1021648000200062</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08693220046557165</v>
+        <v>0.08893878784170511</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1161272227530335</v>
+        <v>0.1184690786797676</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>27904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18609</v>
+        <v>18016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41935</v>
+        <v>43029</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02855926487542572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01904551275414578</v>
+        <v>0.01843881980167828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04291871353093878</v>
+        <v>0.04403825790286567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3798,19 +3798,19 @@
         <v>65229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50166</v>
+        <v>50907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83507</v>
+        <v>83971</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05966982076761749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04589083971229211</v>
+        <v>0.0465688278864173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07638969125830343</v>
+        <v>0.07681464267034127</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -3819,19 +3819,19 @@
         <v>93133</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76157</v>
+        <v>75974</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115590</v>
+        <v>114963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04498682822972474</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03678678387851847</v>
+        <v>0.03669812514937652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05583419692654327</v>
+        <v>0.05553154133704995</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>12009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5860</v>
+        <v>6021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22893</v>
+        <v>22009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01229108766044024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005997487259876191</v>
+        <v>0.006161929075202419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02342976748542054</v>
+        <v>0.02252501527167565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -3869,19 +3869,19 @@
         <v>31444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21157</v>
+        <v>21800</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43772</v>
+        <v>45199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0287646220002309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0193541438761976</v>
+        <v>0.01994168691965737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04004197437923736</v>
+        <v>0.04134686276118664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -3890,19 +3890,19 @@
         <v>43454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30518</v>
+        <v>30827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59045</v>
+        <v>58502</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02098974383276703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01474113521748115</v>
+        <v>0.01489051734416305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02852081354062432</v>
+        <v>0.0282587069466984</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>665546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>640367</v>
+        <v>635798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>694192</v>
+        <v>691447</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7519319521010587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7234843154565684</v>
+        <v>0.7183228164459304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7842957289808451</v>
+        <v>0.7811944826850656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>560</v>
@@ -4015,19 +4015,19 @@
         <v>595078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>565298</v>
+        <v>565659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>622534</v>
+        <v>625790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6801971017054853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6461575524195224</v>
+        <v>0.6465701272856359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7115803034504439</v>
+        <v>0.7153019184197443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1187</v>
@@ -4036,19 +4036,19 @@
         <v>1260624</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1219212</v>
+        <v>1221242</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1296805</v>
+        <v>1296358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7162735083361459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6927436831148821</v>
+        <v>0.6938972449596409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7368312030273707</v>
+        <v>0.7365769280482822</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>123202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102936</v>
+        <v>104318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145670</v>
+        <v>148028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1391934746987707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1162963234309577</v>
+        <v>0.1178584874890741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1645777162261439</v>
+        <v>0.1672418566917884</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -4086,19 +4086,19 @@
         <v>140101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119884</v>
+        <v>117468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166345</v>
+        <v>162054</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1601412280670166</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1370325239919511</v>
+        <v>0.1342699604343921</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1901384880340047</v>
+        <v>0.1852339436694328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>245</v>
@@ -4107,19 +4107,19 @@
         <v>263304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232841</v>
+        <v>234483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296376</v>
+        <v>296117</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1496063253754476</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1322975530302055</v>
+        <v>0.1332307099956536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.168397544032026</v>
+        <v>0.1682505865556504</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>64569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48728</v>
+        <v>48693</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84433</v>
+        <v>83173</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07294952924873119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0550529802763141</v>
+        <v>0.05501306258271497</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09539250073130419</v>
+        <v>0.09396867637138956</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>92</v>
@@ -4157,19 +4157,19 @@
         <v>98089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80119</v>
+        <v>79414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118634</v>
+        <v>119055</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1121200819311098</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09157921353349606</v>
+        <v>0.0907728347496915</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1356031905666372</v>
+        <v>0.1360841172827835</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -4178,19 +4178,19 @@
         <v>162658</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140216</v>
+        <v>139335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189897</v>
+        <v>189861</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09242069204286647</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07966928999478634</v>
+        <v>0.07916860833990724</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1078977461194875</v>
+        <v>0.1078770487913333</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>25558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16944</v>
+        <v>15706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38757</v>
+        <v>38265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02887568010566247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01914290930930571</v>
+        <v>0.01774496770272064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04378775596886281</v>
+        <v>0.04323184520096136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -4228,19 +4228,19 @@
         <v>24729</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17117</v>
+        <v>15826</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35542</v>
+        <v>36292</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02826595725518177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01956503994807189</v>
+        <v>0.01809028586203313</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04062577307400302</v>
+        <v>0.04148333624797743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -4249,19 +4249,19 @@
         <v>50287</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38017</v>
+        <v>37916</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67226</v>
+        <v>68668</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02857259495449597</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02160103845132613</v>
+        <v>0.02154330730109256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03819718751482339</v>
+        <v>0.03901633491467636</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>6239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2170</v>
+        <v>2203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12930</v>
+        <v>12404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007049363845776899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002452167367697088</v>
+        <v>0.002488513046786743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01460856637797972</v>
+        <v>0.01401400262384951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4299,19 +4299,19 @@
         <v>16863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9712</v>
+        <v>9004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28303</v>
+        <v>26919</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01927563104120651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01110119737854773</v>
+        <v>0.01029247588693878</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03235094129774053</v>
+        <v>0.03076914810657069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4320,19 +4320,19 @@
         <v>23103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14758</v>
+        <v>15534</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35094</v>
+        <v>34851</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01312687929104403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008385509766268204</v>
+        <v>0.008826305044904188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01993980864410305</v>
+        <v>0.01980222258374241</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>406130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>386673</v>
+        <v>387129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>424423</v>
+        <v>423980</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8089316249619203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7701769407649146</v>
+        <v>0.7710855756327659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.84536788068168</v>
+        <v>0.8444851139252663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -4445,19 +4445,19 @@
         <v>324759</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>306383</v>
+        <v>304705</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>344349</v>
+        <v>343283</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7173260007744146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6767363980110478</v>
+        <v>0.6730308754800295</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7605963205984141</v>
+        <v>0.7582409159990161</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>665</v>
@@ -4466,19 +4466,19 @@
         <v>730889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>703999</v>
+        <v>702983</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>755392</v>
+        <v>756117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7654948479197879</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.737331196538617</v>
+        <v>0.7362675734569402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7911578327182668</v>
+        <v>0.7919176914062513</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>43839</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32439</v>
+        <v>32041</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57624</v>
+        <v>58145</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08731947596933072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06461300870290265</v>
+        <v>0.06381859854403678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1147750773857653</v>
+        <v>0.115813783423733</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -4516,19 +4516,19 @@
         <v>61674</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47716</v>
+        <v>47885</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>78404</v>
+        <v>78260</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1362261235209254</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.105394575856383</v>
+        <v>0.1057686096378457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1731790333333765</v>
+        <v>0.1728597352126658</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>100</v>
@@ -4537,19 +4537,19 @@
         <v>105514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>87790</v>
+        <v>86028</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126622</v>
+        <v>125585</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1105096148327315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09194657413407842</v>
+        <v>0.09010096542258482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1326169009128813</v>
+        <v>0.1315306749282167</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>35059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24289</v>
+        <v>23616</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50766</v>
+        <v>50741</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06983085423985912</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04837832635856696</v>
+        <v>0.04703803510136164</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1011166704838154</v>
+        <v>0.1010653917023091</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -4587,19 +4587,19 @@
         <v>37948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26556</v>
+        <v>26773</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51336</v>
+        <v>52442</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08381945426606774</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05865634869848863</v>
+        <v>0.05913516220255664</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1133901389363374</v>
+        <v>0.1158340801704801</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>64</v>
@@ -4608,19 +4608,19 @@
         <v>73007</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57152</v>
+        <v>57645</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92992</v>
+        <v>91441</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07646384982129052</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0598581042491489</v>
+        <v>0.06037481594607073</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09739511096644561</v>
+        <v>0.09577097693932043</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>9026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4823</v>
+        <v>4005</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16554</v>
+        <v>16459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01797843406210746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009606354033471381</v>
+        <v>0.007976868375528521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03297210234202619</v>
+        <v>0.03278242128620328</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4658,19 +4658,19 @@
         <v>14445</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8162</v>
+        <v>8051</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24061</v>
+        <v>23870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03190531909835103</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0180283836805168</v>
+        <v>0.01778328372655819</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05314606143641654</v>
+        <v>0.05272322832183624</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -4679,19 +4679,19 @@
         <v>23471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15147</v>
+        <v>15141</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34913</v>
+        <v>34864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02458216615362712</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01586412871807022</v>
+        <v>0.01585764507378021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03656636560299836</v>
+        <v>0.03651429569569081</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>8003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3839</v>
+        <v>3912</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15277</v>
+        <v>15464</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01593961076678239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007645946823251599</v>
+        <v>0.007791725865637496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03042905343787092</v>
+        <v>0.03080053053921281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -4729,19 +4729,19 @@
         <v>13909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7710</v>
+        <v>7461</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22869</v>
+        <v>21886</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03072310234024128</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01702888083789439</v>
+        <v>0.01648027672883525</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05051296346086331</v>
+        <v>0.04834215606348901</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -4750,19 +4750,19 @@
         <v>21912</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13579</v>
+        <v>13754</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33759</v>
+        <v>32642</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02294952127256289</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0142216179174933</v>
+        <v>0.01440555822523476</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03535731581877904</v>
+        <v>0.03418699643091008</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2557985</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2504334</v>
+        <v>2507390</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2607399</v>
+        <v>2612095</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7509783736980865</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7352274303585188</v>
+        <v>0.7361246959156901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7654855190741221</v>
+        <v>0.7668642659658303</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2070</v>
@@ -4875,19 +4875,19 @@
         <v>2235023</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2177019</v>
+        <v>2177245</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2290464</v>
+        <v>2292705</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6314213059814116</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6150344435252307</v>
+        <v>0.6150982427660492</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.647083953636557</v>
+        <v>0.6477171430919429</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4472</v>
@@ -4896,19 +4896,19 @@
         <v>4793007</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4713360</v>
+        <v>4714549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4871419</v>
+        <v>4871620</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6900511774758413</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6785843716866656</v>
+        <v>0.6787554815426077</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7013401198597754</v>
+        <v>0.7013691332037291</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>399567</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>364441</v>
+        <v>362272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>440522</v>
+        <v>440624</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1173055949179935</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1069932531835336</v>
+        <v>0.1063564150728416</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1293292689612572</v>
+        <v>0.1293592823644223</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>480</v>
@@ -4946,19 +4946,19 @@
         <v>517691</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>474661</v>
+        <v>475729</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>561130</v>
+        <v>560737</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1462539684533892</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1340975415484875</v>
+        <v>0.1343993125848986</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.15852603683934</v>
+        <v>0.1584149897204549</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>857</v>
@@ -4967,19 +4967,19 @@
         <v>917257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>859427</v>
+        <v>858731</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>973527</v>
+        <v>977073</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1320579075030228</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1237321030559917</v>
+        <v>0.1236317825864732</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1401591385110672</v>
+        <v>0.1406695544394094</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>289711</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>257506</v>
+        <v>255334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>323494</v>
+        <v>323386</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0850539253780217</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07559904936057059</v>
+        <v>0.07496143422596901</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09497191517421241</v>
+        <v>0.094940266707814</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>427</v>
@@ -5017,19 +5017,19 @@
         <v>457497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>419616</v>
+        <v>418614</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>500225</v>
+        <v>501582</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1292485155771114</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1185465504688477</v>
+        <v>0.1182636179768355</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1413197700255937</v>
+        <v>0.1417030920700225</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>692</v>
@@ -5038,19 +5038,19 @@
         <v>747208</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>694185</v>
+        <v>692985</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>799532</v>
+        <v>802273</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1075758265959628</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09994203611881607</v>
+        <v>0.09976932235622359</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1151089198824497</v>
+        <v>0.1155035394836509</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>108666</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88450</v>
+        <v>89590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>132039</v>
+        <v>135181</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03190240108725648</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02596740556671295</v>
+        <v>0.0263020395148681</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03876431831170031</v>
+        <v>0.0396868107983117</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>195</v>
@@ -5088,19 +5088,19 @@
         <v>207408</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>180081</v>
+        <v>180672</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>235327</v>
+        <v>237968</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05859531238500611</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05087504304550386</v>
+        <v>0.05104199403301745</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06648280630531937</v>
+        <v>0.06722880981875085</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>294</v>
@@ -5109,19 +5109,19 @@
         <v>316074</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>280360</v>
+        <v>279260</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>349700</v>
+        <v>354194</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04550531286353909</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04036359332511438</v>
+        <v>0.04020513252401941</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05034644852899627</v>
+        <v>0.05099338153394447</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>50275</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35135</v>
+        <v>37385</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66293</v>
+        <v>69147</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01475970491864187</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01031499328902023</v>
+        <v>0.01097563873623721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01946240066408332</v>
+        <v>0.02030042816875821</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>109</v>
@@ -5159,19 +5159,19 @@
         <v>122051</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>99510</v>
+        <v>99393</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>147496</v>
+        <v>145969</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03448089760308171</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02811276566628979</v>
+        <v>0.02807973216388154</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0416692887912782</v>
+        <v>0.04123802220383836</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>156</v>
@@ -5180,19 +5180,19 @@
         <v>172326</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>147136</v>
+        <v>146619</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>203930</v>
+        <v>201814</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02480977556163395</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02118321790556776</v>
+        <v>0.02110876982251551</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02935988078113297</v>
+        <v>0.0290552781860834</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>806551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>774764</v>
+        <v>772748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>838041</v>
+        <v>835982</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7150290986099997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6868493387688929</v>
+        <v>0.6850619610801425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7429458689404179</v>
+        <v>0.7411205003698996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>751</v>
@@ -5545,19 +5545,19 @@
         <v>780132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>744931</v>
+        <v>740735</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>814782</v>
+        <v>814069</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6202210543742492</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5922354617255293</v>
+        <v>0.5888997528405439</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6477688078506856</v>
+        <v>0.647201703020955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1511</v>
@@ -5566,19 +5566,19 @@
         <v>1586683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1535931</v>
+        <v>1535840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1631102</v>
+        <v>1634258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6650454456501746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6437732567156526</v>
+        <v>0.6437351925705271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.683663574736729</v>
+        <v>0.6849864270867819</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>163712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140559</v>
+        <v>140056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188534</v>
+        <v>188174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1451349791221586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1246096452725567</v>
+        <v>0.1241636805392787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1671404785981849</v>
+        <v>0.1668210616774064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -5616,19 +5616,19 @@
         <v>189844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166953</v>
+        <v>167042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218397</v>
+        <v>217270</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1509298462273125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1327311230442964</v>
+        <v>0.1328020620543468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1736301796184245</v>
+        <v>0.1727338441275958</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -5637,19 +5637,19 @@
         <v>353556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>319038</v>
+        <v>321729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>391169</v>
+        <v>390235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1481900851383958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1337220922723529</v>
+        <v>0.1348500662732975</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1639554870601904</v>
+        <v>0.1635638495358069</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>93018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75518</v>
+        <v>76383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113855</v>
+        <v>111977</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08246301644084364</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06694835125237399</v>
+        <v>0.06771598353270639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1009351963326444</v>
+        <v>0.09927056717059059</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>167</v>
@@ -5687,19 +5687,19 @@
         <v>186899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164215</v>
+        <v>161225</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216150</v>
+        <v>213799</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1485882355956813</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1305545430810814</v>
+        <v>0.128176944353529</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.171844060813272</v>
+        <v>0.1699746137943891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>257</v>
@@ -5708,19 +5708,19 @@
         <v>279917</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>248461</v>
+        <v>246782</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314456</v>
+        <v>311442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1173248262458122</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1041403914371253</v>
+        <v>0.1034366070381249</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1318017930263275</v>
+        <v>0.1305383883327999</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>35411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25674</v>
+        <v>24754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49088</v>
+        <v>49253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0313931555688781</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02276052786024837</v>
+        <v>0.02194534834686249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04351785924074965</v>
+        <v>0.0436638389817112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -5758,19 +5758,19 @@
         <v>74411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57609</v>
+        <v>58079</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91979</v>
+        <v>92836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05915825066981086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04580058398876422</v>
+        <v>0.04617423254886587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07312501523745435</v>
+        <v>0.0738063198760799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -5779,19 +5779,19 @@
         <v>109822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89762</v>
+        <v>88206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132201</v>
+        <v>131272</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04603116323066093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03762303530706445</v>
+        <v>0.03697071857132994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05541092970851436</v>
+        <v>0.05502145387016715</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>29305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19297</v>
+        <v>19637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41739</v>
+        <v>41462</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02597975025811991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01710724383894515</v>
+        <v>0.01740843257041044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0370025858333701</v>
+        <v>0.03675718733496562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -5829,19 +5829,19 @@
         <v>26543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17787</v>
+        <v>17208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38947</v>
+        <v>39362</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02110261313294609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01414122489431871</v>
+        <v>0.01368039236683197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03096370616055992</v>
+        <v>0.03129375577331531</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -5850,19 +5850,19 @@
         <v>55849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41157</v>
+        <v>40299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72985</v>
+        <v>73202</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0234084797349564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01725078246578201</v>
+        <v>0.01689109409950338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03059101213536744</v>
+        <v>0.03068210161828783</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>726029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>700395</v>
+        <v>701490</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>749114</v>
+        <v>750294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7997213744258123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7714860994754142</v>
+        <v>0.7726919072223483</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8251494115999912</v>
+        <v>0.8264495748155827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>701</v>
@@ -5975,19 +5975,19 @@
         <v>731536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>703133</v>
+        <v>701484</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>762088</v>
+        <v>759802</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7285129823442856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7002273059430177</v>
+        <v>0.6985850734457223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7589387345620255</v>
+        <v>0.7566618161246905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1403</v>
@@ -5996,19 +5996,19 @@
         <v>1457565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1420065</v>
+        <v>1419446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1494369</v>
+        <v>1494664</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.762323978931532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7427110837538163</v>
+        <v>0.7423873396183136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7815728184641361</v>
+        <v>0.7817271834944536</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>110516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92241</v>
+        <v>90102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131559</v>
+        <v>130769</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1217336465271197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1016034163019086</v>
+        <v>0.09924730319008479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1449128768015425</v>
+        <v>0.14404263237811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>117</v>
@@ -6046,19 +6046,19 @@
         <v>124236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105483</v>
+        <v>104367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147704</v>
+        <v>146819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1237229072266784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1050465805965288</v>
+        <v>0.103936150913028</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1470939149828824</v>
+        <v>0.1462124872942433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>225</v>
@@ -6067,19 +6067,19 @@
         <v>234752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206810</v>
+        <v>204171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267747</v>
+        <v>262158</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1227783712702013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1081641523742755</v>
+        <v>0.1067838083503437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1400346486731411</v>
+        <v>0.1371117769846252</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>53415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39422</v>
+        <v>40912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69838</v>
+        <v>69703</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05883686405226896</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04342324498722884</v>
+        <v>0.04506416487500983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0769267317862662</v>
+        <v>0.07677822425843152</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -6117,19 +6117,19 @@
         <v>99419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77337</v>
+        <v>80369</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>119681</v>
+        <v>119511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09900829582149225</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07701747106946256</v>
+        <v>0.08003691263698037</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1191864970396728</v>
+        <v>0.1190173557191332</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>140</v>
@@ -6138,19 +6138,19 @@
         <v>152834</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129705</v>
+        <v>130087</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181384</v>
+        <v>179187</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07993419370022872</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06783721380735476</v>
+        <v>0.06803696107276358</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09486619951412806</v>
+        <v>0.09371720427411238</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>10658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5789</v>
+        <v>5648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18119</v>
+        <v>18179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01173929175595492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006376655206608693</v>
+        <v>0.006221404006192246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01995759042640075</v>
+        <v>0.02002410014139806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -6188,19 +6188,19 @@
         <v>27618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17962</v>
+        <v>17793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39708</v>
+        <v>40279</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02750363146161052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01788824967042726</v>
+        <v>0.01771980967311917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03954349270811625</v>
+        <v>0.04011285476050536</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -6209,19 +6209,19 @@
         <v>38275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26707</v>
+        <v>27030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53148</v>
+        <v>51628</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02001844579167048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01396792398063286</v>
+        <v>0.01413710288691204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02779701884637878</v>
+        <v>0.02700183016142924</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>7235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2763</v>
+        <v>3084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15168</v>
+        <v>15125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007968823238844135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00304370988456524</v>
+        <v>0.003397305883613193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01670797826540565</v>
+        <v>0.01666057387237724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -6259,19 +6259,19 @@
         <v>21340</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12917</v>
+        <v>13430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33691</v>
+        <v>34559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02125218314593318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0128631317208214</v>
+        <v>0.01337437346029534</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03355171932689492</v>
+        <v>0.03441616932165639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -6280,19 +6280,19 @@
         <v>28575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18826</v>
+        <v>18550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42890</v>
+        <v>42275</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01494501030636742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009846309880569244</v>
+        <v>0.009702062203424658</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02243203015615915</v>
+        <v>0.02211012030179021</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>675701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>654564</v>
+        <v>650719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>697894</v>
+        <v>697308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8202648354383644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7946061965466491</v>
+        <v>0.7899383931767607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8472059994515244</v>
+        <v>0.8464948063857376</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>529</v>
@@ -6405,19 +6405,19 @@
         <v>545444</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>519180</v>
+        <v>517551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>570104</v>
+        <v>570114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7073963032687101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6733330782981518</v>
+        <v>0.6712206817688987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7393779464458479</v>
+        <v>0.7393904726094591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1172</v>
@@ -6426,19 +6426,19 @@
         <v>1221145</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1181378</v>
+        <v>1186772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1254715</v>
+        <v>1257201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7656954338826333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7407603876118252</v>
+        <v>0.7441426222173025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7867449899667273</v>
+        <v>0.7883039762601279</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>98684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81164</v>
+        <v>81710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116107</v>
+        <v>118343</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.119796588793414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09852848868368959</v>
+        <v>0.09919163531905871</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1409474358555967</v>
+        <v>0.1436626197606603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -6476,19 +6476,19 @@
         <v>128950</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109791</v>
+        <v>109689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155029</v>
+        <v>151629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1672377190970215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1423899788468363</v>
+        <v>0.1422579021684257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2010599154727742</v>
+        <v>0.1966508109902919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>213</v>
@@ -6497,19 +6497,19 @@
         <v>227634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>200980</v>
+        <v>199822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257007</v>
+        <v>258101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1427333103049865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1260207159590569</v>
+        <v>0.1252943935169965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1611511934031394</v>
+        <v>0.1618373948203936</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>30646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21446</v>
+        <v>20704</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43549</v>
+        <v>42279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03720213624164478</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02603456588261209</v>
+        <v>0.02513324589938493</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05286577088611055</v>
+        <v>0.05132454793132656</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -6547,19 +6547,19 @@
         <v>69529</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53702</v>
+        <v>53589</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87861</v>
+        <v>89016</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09017357804832365</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06964731901706026</v>
+        <v>0.06950016738867365</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.113948109221083</v>
+        <v>0.11544667001929</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -6568,19 +6568,19 @@
         <v>100175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82187</v>
+        <v>81482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>122754</v>
+        <v>122404</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06281263921682098</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05153402156131334</v>
+        <v>0.05109141264373267</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07697031805873991</v>
+        <v>0.0767510467032463</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>12590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6696</v>
+        <v>6241</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21639</v>
+        <v>21407</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01528387305523995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008129196114433171</v>
+        <v>0.007576079478190693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02626856266015228</v>
+        <v>0.02598662211299044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -6618,19 +6618,19 @@
         <v>18126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10681</v>
+        <v>10082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29962</v>
+        <v>29329</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02350809061340707</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01385239275633998</v>
+        <v>0.01307578343194024</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03885781477814147</v>
+        <v>0.03803737720711774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -6639,19 +6639,19 @@
         <v>30716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20065</v>
+        <v>20943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43773</v>
+        <v>46036</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01926009762187764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01258129011286765</v>
+        <v>0.01313209575907825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02744682027250661</v>
+        <v>0.02886614383447043</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>6139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2463</v>
+        <v>2632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14164</v>
+        <v>13781</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007452566471336874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002989725215345134</v>
+        <v>0.003195648316328595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01719414434303186</v>
+        <v>0.01672924936777525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -6689,19 +6689,19 @@
         <v>9009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4501</v>
+        <v>4299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16992</v>
+        <v>18479</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01168430897253765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005837856522888357</v>
+        <v>0.005574835590614219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02203681593737642</v>
+        <v>0.02396609617397651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -6710,19 +6710,19 @@
         <v>15148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8460</v>
+        <v>8381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25595</v>
+        <v>25535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009498518973681586</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005304483452773652</v>
+        <v>0.005255447698101383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01604906140507028</v>
+        <v>0.01601098831726728</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>427829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>410563</v>
+        <v>410644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>444911</v>
+        <v>442967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.844341417310129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8102677884455086</v>
+        <v>0.8104257538610857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8780535441913588</v>
+        <v>0.8742175358809099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>372</v>
@@ -6835,19 +6835,19 @@
         <v>398796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>380501</v>
+        <v>380410</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>414569</v>
+        <v>415739</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.816006319995042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.778570396223791</v>
+        <v>0.7783844557695609</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8482805412261774</v>
+        <v>0.8506751400096625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>769</v>
@@ -6856,19 +6856,19 @@
         <v>826624</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>802173</v>
+        <v>804286</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>850580</v>
+        <v>851274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8304298360816992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8058662984810318</v>
+        <v>0.807988647802744</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8544956671000437</v>
+        <v>0.8551934341590149</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>42601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>30625</v>
+        <v>31296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57127</v>
+        <v>56309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08407468577129697</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06043947618462978</v>
+        <v>0.06176416931012398</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1127423990925744</v>
+        <v>0.1111284971609957</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -6906,19 +6906,19 @@
         <v>44967</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32757</v>
+        <v>33543</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58906</v>
+        <v>60404</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09201121037950999</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06702702746681427</v>
+        <v>0.0686356168999883</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1205321436873786</v>
+        <v>0.1235976458969887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>84</v>
@@ -6927,19 +6927,19 @@
         <v>87568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69762</v>
+        <v>71026</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106015</v>
+        <v>108846</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08797125282842863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07008301005977627</v>
+        <v>0.07135318794857187</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1065029925950121</v>
+        <v>0.1093473313163808</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>22873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14095</v>
+        <v>14928</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33997</v>
+        <v>35780</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04514061581825941</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02781664198468265</v>
+        <v>0.02946030403675345</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06709508184217632</v>
+        <v>0.07061294913807248</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -6977,19 +6977,19 @@
         <v>27452</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18075</v>
+        <v>18328</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38865</v>
+        <v>39981</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05617174683532659</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03698537887024015</v>
+        <v>0.03750278352435859</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07952544213465627</v>
+        <v>0.08180890283872093</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -6998,19 +6998,19 @@
         <v>50325</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37202</v>
+        <v>37094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65017</v>
+        <v>66374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05055653069862484</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03737353012942046</v>
+        <v>0.03726435474175625</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0653159048710119</v>
+        <v>0.06667952230379622</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>8688</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3512</v>
+        <v>3805</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18644</v>
+        <v>18365</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01714695319221407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006931510295043465</v>
+        <v>0.007509056931569278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03679450929227845</v>
+        <v>0.03624509445261076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -7048,19 +7048,19 @@
         <v>7811</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3316</v>
+        <v>3365</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16093</v>
+        <v>15260</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0159836037953925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00678476112100671</v>
+        <v>0.006885695043938692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0329289309477626</v>
+        <v>0.03122463811402128</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -7069,19 +7069,19 @@
         <v>16500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9125</v>
+        <v>9766</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27251</v>
+        <v>27865</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01657578770613998</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009166949838651109</v>
+        <v>0.00981085288044419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02737601760878373</v>
+        <v>0.02799375413295737</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>4710</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1835</v>
+        <v>1825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11313</v>
+        <v>10975</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009296327908100487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003621795663457839</v>
+        <v>0.003602354692315542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02232713512976662</v>
+        <v>0.02165876871213916</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -7119,19 +7119,19 @@
         <v>9690</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4367</v>
+        <v>4864</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18764</v>
+        <v>19222</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01982711899472893</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008935015025976338</v>
+        <v>0.009952633791014848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.038393714184668</v>
+        <v>0.03933246837514486</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -7140,19 +7140,19 @@
         <v>14400</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7902</v>
+        <v>8302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23802</v>
+        <v>23170</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01446659268510737</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007938097377178906</v>
+        <v>0.008340565797025266</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02391166190853161</v>
+        <v>0.02327668786176559</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>2636109</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2584834</v>
+        <v>2586047</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2678182</v>
+        <v>2687997</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7830857189360897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7678537425621218</v>
+        <v>0.7682142832139713</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7955838378733026</v>
+        <v>0.7984996712327087</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2353</v>
@@ -7265,19 +7265,19 @@
         <v>2455908</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2398016</v>
+        <v>2399725</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2510823</v>
+        <v>2512143</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6973536539239394</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6809152202423705</v>
+        <v>0.681400434882104</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7129466696769592</v>
+        <v>0.7133215652564823</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4855</v>
@@ -7286,19 +7286,19 @@
         <v>5092017</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5018473</v>
+        <v>5024581</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5169670</v>
+        <v>5170004</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7392523188165975</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7285751975931778</v>
+        <v>0.7294620003197592</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7505258400990819</v>
+        <v>0.7505743310143704</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>415512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>380368</v>
+        <v>378337</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>457472</v>
+        <v>451517</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1234325809862626</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1129924872463541</v>
+        <v>0.1123893079777222</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1358971419773107</v>
+        <v>0.1341282896248785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>454</v>
@@ -7336,19 +7336,19 @@
         <v>487998</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>449095</v>
+        <v>447295</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>531989</v>
+        <v>531071</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.138566682154175</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1275203376337561</v>
+        <v>0.1270091407524639</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1510580966634727</v>
+        <v>0.1507972610610082</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>853</v>
@@ -7357,19 +7357,19 @@
         <v>903510</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>844426</v>
+        <v>849588</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>959691</v>
+        <v>965065</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1311703989409329</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1225926512056063</v>
+        <v>0.1233420522047249</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1393267247374461</v>
+        <v>0.1401068610137996</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>199952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>172892</v>
+        <v>169617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>227979</v>
+        <v>229674</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0593978709368673</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05135949435425981</v>
+        <v>0.05038675032788516</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06772356747051979</v>
+        <v>0.06822714830827004</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>339</v>
@@ -7407,19 +7407,19 @@
         <v>383299</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>346551</v>
+        <v>350325</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>422308</v>
+        <v>426814</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1088375090761627</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09840305257676239</v>
+        <v>0.09947452670968254</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1199140563139936</v>
+        <v>0.1211936357424945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>533</v>
@@ -7428,19 +7428,19 @@
         <v>583251</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>535449</v>
+        <v>535986</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>634085</v>
+        <v>634220</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08467554784824824</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07773584432009031</v>
+        <v>0.07781372644479825</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09205559376612046</v>
+        <v>0.09207525347870585</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>67348</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>51909</v>
+        <v>53579</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84721</v>
+        <v>87988</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0200063425931091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0154200452871921</v>
+        <v>0.01591637449105059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02516726181956856</v>
+        <v>0.02613774205923432</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>113</v>
@@ -7478,19 +7478,19 @@
         <v>127966</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>104369</v>
+        <v>105759</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>151707</v>
+        <v>154284</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03633595582992726</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02963545363486678</v>
+        <v>0.03003010659342976</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04307722598579666</v>
+        <v>0.04380889079811668</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>176</v>
@@ -7499,19 +7499,19 @@
         <v>195314</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>167452</v>
+        <v>167479</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>226390</v>
+        <v>228259</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02835540628012706</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0243104975384683</v>
+        <v>0.02431437263460765</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0328670630644053</v>
+        <v>0.0331382799750725</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>47389</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35615</v>
+        <v>35924</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62948</v>
+        <v>62864</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01407748654767125</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01057974597255137</v>
+        <v>0.01067153971260443</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0186995348600908</v>
+        <v>0.01867458827855258</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -7549,19 +7549,19 @@
         <v>66583</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50150</v>
+        <v>51571</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85385</v>
+        <v>86223</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01890619901579564</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01424000278791624</v>
+        <v>0.01464357024207504</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02424501554962772</v>
+        <v>0.02448299498418116</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>104</v>
@@ -7570,19 +7570,19 @@
         <v>113972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>94141</v>
+        <v>94135</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>139643</v>
+        <v>138932</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01654632811409427</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01366723016491539</v>
+        <v>0.01366642758347993</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02027314047031958</v>
+        <v>0.0201699558818523</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>319598</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>298553</v>
+        <v>295769</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342666</v>
+        <v>342295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.642015410466935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5997397123224409</v>
+        <v>0.5941464102491786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6883530495941728</v>
+        <v>0.6876091293602294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>461</v>
@@ -7935,19 +7935,19 @@
         <v>365501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>344267</v>
+        <v>343557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>386283</v>
+        <v>385571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5875645438086908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5534299071453953</v>
+        <v>0.5522885309276214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6209724044952895</v>
+        <v>0.6198281520715465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>727</v>
@@ -7956,19 +7956,19 @@
         <v>685099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>651086</v>
+        <v>653899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>715069</v>
+        <v>716069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6117691606017608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5813967242652806</v>
+        <v>0.5839080240077034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6385312975515653</v>
+        <v>0.6394241763545191</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>53946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40459</v>
+        <v>41037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68128</v>
+        <v>69953</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.10836848602679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0812738947466926</v>
+        <v>0.08243609305840535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.136857652741816</v>
+        <v>0.140522300328588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -8006,19 +8006,19 @@
         <v>61770</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49984</v>
+        <v>49977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74561</v>
+        <v>76392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09929958372182575</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08035167557722056</v>
+        <v>0.08034179401305876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1198608867898283</v>
+        <v>0.1228039224903423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -8027,19 +8027,19 @@
         <v>115717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96629</v>
+        <v>97569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>136123</v>
+        <v>137584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1033309117519777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08628598091896554</v>
+        <v>0.08712525876045446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1215530704412245</v>
+        <v>0.1228578449355217</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>67465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53275</v>
+        <v>53919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83683</v>
+        <v>84247</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1355239866023815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1070190923005985</v>
+        <v>0.1083126832603439</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1681043099727056</v>
+        <v>0.1692378361641679</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>158</v>
@@ -8077,19 +8077,19 @@
         <v>104248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89532</v>
+        <v>89186</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120025</v>
+        <v>120826</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.167585209819153</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1439275137183807</v>
+        <v>0.1433724973947597</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1929478995130052</v>
+        <v>0.1942355753016798</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>229</v>
@@ -8098,19 +8098,19 @@
         <v>171713</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>151652</v>
+        <v>151300</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>196662</v>
+        <v>195213</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1533332856624685</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1354194616505032</v>
+        <v>0.1351055289527845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1756118347120572</v>
+        <v>0.1743178289033863</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>35202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25723</v>
+        <v>24843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48652</v>
+        <v>48605</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07071446286184367</v>
+        <v>0.0707144628618437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05167360255137814</v>
+        <v>0.04990463779707165</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09773207199954215</v>
+        <v>0.09763820039746833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -8148,19 +8148,19 @@
         <v>48873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38652</v>
+        <v>38864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59935</v>
+        <v>61010</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07856593097633773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06213569678423873</v>
+        <v>0.06247541005436207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09634955200292653</v>
+        <v>0.09807745599867639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>115</v>
@@ -8169,19 +8169,19 @@
         <v>84075</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69725</v>
+        <v>69537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100508</v>
+        <v>101373</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07507577942067717</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06226195074375368</v>
+        <v>0.06209418985225105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08974987695845353</v>
+        <v>0.09052221636814739</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>21594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14120</v>
+        <v>13755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31919</v>
+        <v>32323</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04337765404204998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02836520576841663</v>
+        <v>0.02763041278203882</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06411971978259047</v>
+        <v>0.06493097370033725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -8219,19 +8219,19 @@
         <v>41669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32691</v>
+        <v>32652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53485</v>
+        <v>53231</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06698473167399277</v>
+        <v>0.06698473167399276</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05255339713603478</v>
+        <v>0.05249076887999787</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08597992380909608</v>
+        <v>0.08557146032382081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -8240,19 +8240,19 @@
         <v>63262</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51665</v>
+        <v>51117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77874</v>
+        <v>78664</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05649086256311581</v>
+        <v>0.05649086256311582</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04613477803364594</v>
+        <v>0.0456457891345075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06953839099038385</v>
+        <v>0.07024445315580136</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>744738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>714195</v>
+        <v>716163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>768302</v>
+        <v>769744</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7764581557928161</v>
+        <v>0.776458155792816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7446145681440429</v>
+        <v>0.7466661285915321</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.801026087947027</v>
+        <v>0.8025296148921359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>994</v>
@@ -8365,19 +8365,19 @@
         <v>731202</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>704745</v>
+        <v>702280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>755823</v>
+        <v>756399</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6567136123829483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6329514516152694</v>
+        <v>0.6307381047453452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6788265286204114</v>
+        <v>0.6793440078626243</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1659</v>
@@ -8386,19 +8386,19 @@
         <v>1475940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1436351</v>
+        <v>1435475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1512198</v>
+        <v>1512409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7121290964116244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6930279711915641</v>
+        <v>0.692605200770977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7296237431973442</v>
+        <v>0.729725362898903</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>97259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81255</v>
+        <v>81046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116476</v>
+        <v>120510</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1014017287235903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08471578586126247</v>
+        <v>0.08449799515867132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1214375260798301</v>
+        <v>0.1256426444989177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -8436,19 +8436,19 @@
         <v>152710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135113</v>
+        <v>133713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173552</v>
+        <v>172976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1371531398022328</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1213485761846509</v>
+        <v>0.1200911580763461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1558719243431373</v>
+        <v>0.1553543837772145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>341</v>
@@ -8457,19 +8457,19 @@
         <v>249969</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>223993</v>
+        <v>224035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>278988</v>
+        <v>275446</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1206080706640938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1080749252883501</v>
+        <v>0.1080949504379092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1346095062413584</v>
+        <v>0.1329006861382637</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>69894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54922</v>
+        <v>55991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89393</v>
+        <v>87105</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07287056913243557</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05726162656328352</v>
+        <v>0.05837626753456697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09320026336262283</v>
+        <v>0.09081539036281713</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -8507,19 +8507,19 @@
         <v>142667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124078</v>
+        <v>124650</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>163210</v>
+        <v>161001</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1281329152518997</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1114376884915671</v>
+        <v>0.111952183583708</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1465833574037443</v>
+        <v>0.1445996597653477</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>300</v>
@@ -8528,19 +8528,19 @@
         <v>212560</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>186984</v>
+        <v>187585</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>237899</v>
+        <v>238221</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1025585586126311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09021822188949059</v>
+        <v>0.09050815720522913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1147841726251497</v>
+        <v>0.1149395177554928</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>27979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19037</v>
+        <v>19772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40107</v>
+        <v>41567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02917118390069981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01984771089521695</v>
+        <v>0.0206141879152611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04181570971189608</v>
+        <v>0.0433372413198119</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -8578,19 +8578,19 @@
         <v>52005</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42673</v>
+        <v>41814</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63811</v>
+        <v>63444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04670681573423975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03832599927394441</v>
+        <v>0.03755455624007421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05731061179944551</v>
+        <v>0.05698082263590876</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -8599,19 +8599,19 @@
         <v>79984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66424</v>
+        <v>65801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96048</v>
+        <v>96401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03859166077074269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03204905921154586</v>
+        <v>0.03174860794738123</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0463421682084673</v>
+        <v>0.04651249177880149</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>19277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12570</v>
+        <v>12158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28343</v>
+        <v>28028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02009836245045839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01310579309871793</v>
+        <v>0.01267533422230662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02954996661519708</v>
+        <v>0.02922215257332231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -8649,19 +8649,19 @@
         <v>34843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26351</v>
+        <v>26317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45347</v>
+        <v>44822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0312935168286794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02366680638548012</v>
+        <v>0.02363637456604671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04072779076486094</v>
+        <v>0.04025613292988975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -8670,19 +8670,19 @@
         <v>54120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42000</v>
+        <v>43559</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66621</v>
+        <v>67577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02611261354090798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02026442797720449</v>
+        <v>0.02101709671211072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03214388088796299</v>
+        <v>0.03260546375813202</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>872989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>845096</v>
+        <v>847284</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>894576</v>
+        <v>897285</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8347474011616662</v>
+        <v>0.8347474011616663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8080761946957301</v>
+        <v>0.8101684595641994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8553887112993921</v>
+        <v>0.8579795222263084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1080</v>
@@ -8795,19 +8795,19 @@
         <v>775864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>747829</v>
+        <v>749907</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>798164</v>
+        <v>800213</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7409204892696415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7141482621104482</v>
+        <v>0.7161332172781247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7622164453314737</v>
+        <v>0.7641731434150868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1915</v>
@@ -8816,19 +8816,19 @@
         <v>1648853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1612437</v>
+        <v>1612804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1682078</v>
+        <v>1682401</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7878036705577371</v>
+        <v>0.787803670557737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7704049352646842</v>
+        <v>0.77057986317696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8036782579853889</v>
+        <v>0.8038326254282923</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>79531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63506</v>
+        <v>63470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98797</v>
+        <v>97263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07604672512527876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06072390323006009</v>
+        <v>0.06068988105871808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09446918861908501</v>
+        <v>0.09300205959099861</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -8866,19 +8866,19 @@
         <v>112092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95926</v>
+        <v>96293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130311</v>
+        <v>130941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1070434839795735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09160539510010579</v>
+        <v>0.09195654353205528</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1244421054343537</v>
+        <v>0.1250439678869411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>266</v>
@@ -8887,19 +8887,19 @@
         <v>191622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167886</v>
+        <v>167125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218258</v>
+        <v>215454</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09155510612076001</v>
+        <v>0.09155510612076002</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08021403926206827</v>
+        <v>0.07985058681625355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1042812309151009</v>
+        <v>0.1029415349458241</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>62766</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48565</v>
+        <v>48112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79357</v>
+        <v>80864</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06001648839814672</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04643722277084497</v>
+        <v>0.04600415376460839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.075880347269711</v>
+        <v>0.07732131328713347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>176</v>
@@ -8937,19 +8937,19 @@
         <v>109220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93893</v>
+        <v>93188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127502</v>
+        <v>127175</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1043005710417785</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08966418360134933</v>
+        <v>0.08899102419059542</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1217594574813798</v>
+        <v>0.121447483841685</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>245</v>
@@ -8958,19 +8958,19 @@
         <v>171986</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>149844</v>
+        <v>148467</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>197710</v>
+        <v>196520</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08217281864225753</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07159374849332374</v>
+        <v>0.0709359541228563</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09446356549693058</v>
+        <v>0.09389496956635951</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>13501</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7874</v>
+        <v>8174</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21502</v>
+        <v>21861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01290915484817366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007529494479268356</v>
+        <v>0.007816170682501584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02056037623538251</v>
+        <v>0.02090341011778093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -9008,19 +9008,19 @@
         <v>29613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22284</v>
+        <v>21625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39432</v>
+        <v>39129</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02827885503122166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02128055750382385</v>
+        <v>0.02065118736099334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03765593068654538</v>
+        <v>0.03736716121751069</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -9029,19 +9029,19 @@
         <v>43113</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33446</v>
+        <v>34065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54863</v>
+        <v>56163</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02059896420357989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01598027348111923</v>
+        <v>0.01627610858912883</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02621278086096082</v>
+        <v>0.02683420363533321</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>17026</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9716</v>
+        <v>9627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30349</v>
+        <v>27052</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01628023046673446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00929023680666735</v>
+        <v>0.009205116367711413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02901962501391907</v>
+        <v>0.02586737253410686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -9079,19 +9079,19 @@
         <v>20374</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14084</v>
+        <v>13860</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28484</v>
+        <v>28506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0194566006777849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01344936239677569</v>
+        <v>0.01323567829804156</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02720084990771882</v>
+        <v>0.02722173718664411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -9100,19 +9100,19 @@
         <v>37400</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27059</v>
+        <v>27830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50187</v>
+        <v>51107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01786944047566551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01292846001083668</v>
+        <v>0.01329705324487398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02397873272199857</v>
+        <v>0.0244185012776971</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>773293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>743967</v>
+        <v>742916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>797387</v>
+        <v>799603</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7923656749010327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7623171617399718</v>
+        <v>0.7612395312704876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8170546368890829</v>
+        <v>0.8193252486270414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>950</v>
@@ -9225,19 +9225,19 @@
         <v>675163</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651619</v>
+        <v>651450</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>698406</v>
+        <v>698050</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7430463670155268</v>
+        <v>0.7430463670155267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7171348017600789</v>
+        <v>0.7169493939925161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7686263558012059</v>
+        <v>0.76823454872584</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1692</v>
@@ -9246,19 +9246,19 @@
         <v>1448456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1410756</v>
+        <v>1412706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1484353</v>
+        <v>1483289</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7685864740072987</v>
+        <v>0.7685864740072986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7485818105155726</v>
+        <v>0.7496166105826708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7876346286719451</v>
+        <v>0.7870697738092487</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>73463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56428</v>
+        <v>56518</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>93341</v>
+        <v>91447</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07527502713184701</v>
+        <v>0.07527502713184699</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05781984491703888</v>
+        <v>0.05791156842001008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09564285346194998</v>
+        <v>0.09370209129382551</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>114</v>
@@ -9296,19 +9296,19 @@
         <v>70717</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>58017</v>
+        <v>57980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>84363</v>
+        <v>85327</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.07782663346878006</v>
+        <v>0.07782663346878005</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06385005097169737</v>
+        <v>0.06380979310994767</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0928456757409207</v>
+        <v>0.09390590879227428</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>186</v>
@@ -9317,19 +9317,19 @@
         <v>144180</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>121573</v>
+        <v>123517</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>166645</v>
+        <v>169294</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07650527877748065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06450952358324616</v>
+        <v>0.06554127030487958</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08842616943219019</v>
+        <v>0.08983156454081213</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>83324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66178</v>
+        <v>66348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105733</v>
+        <v>104981</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08537963259552059</v>
+        <v>0.0853796325955206</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06781038845326692</v>
+        <v>0.06798402953697781</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1083405040089835</v>
+        <v>0.1075705057614185</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>181</v>
@@ -9367,19 +9367,19 @@
         <v>114945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97624</v>
+        <v>98779</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133336</v>
+        <v>135319</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1265016866371133</v>
+        <v>0.1265016866371132</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1074389088701075</v>
+        <v>0.1087106803852981</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1467418353202399</v>
+        <v>0.1489242143456993</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>266</v>
@@ -9388,19 +9388,19 @@
         <v>198269</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>173983</v>
+        <v>171784</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>228834</v>
+        <v>224856</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.105206544734841</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09231973302688425</v>
+        <v>0.09115271515704521</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1214249941062927</v>
+        <v>0.1193140979294808</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>28321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18849</v>
+        <v>18440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41608</v>
+        <v>41468</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0290197603827383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01931412385603206</v>
+        <v>0.01889511950742905</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04263378507717148</v>
+        <v>0.04249029335328756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -9438,19 +9438,19 @@
         <v>30193</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22230</v>
+        <v>22298</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39708</v>
+        <v>40045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03322917878891305</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02446481244928163</v>
+        <v>0.02453963881231519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04370026389016433</v>
+        <v>0.04407079598707059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -9459,19 +9459,19 @@
         <v>58515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46430</v>
+        <v>46189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75530</v>
+        <v>73944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03104932264177454</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02463707482910126</v>
+        <v>0.02450881965143558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04007788878731091</v>
+        <v>0.03923677001036737</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>17528</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9832</v>
+        <v>9825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30232</v>
+        <v>29624</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01795990498886148</v>
+        <v>0.01795990498886149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01007478444080017</v>
+        <v>0.01006741898972056</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03097724633919333</v>
+        <v>0.03035512600257751</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -9509,19 +9509,19 @@
         <v>17624</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12147</v>
+        <v>11545</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25790</v>
+        <v>25216</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01939613408966693</v>
+        <v>0.01939613408966692</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01336778344153828</v>
+        <v>0.01270620671465294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02838339204249651</v>
+        <v>0.02775132911986413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -9530,19 +9530,19 @@
         <v>35152</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24513</v>
+        <v>24700</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48750</v>
+        <v>48496</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0186523798386052</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01300712856700523</v>
+        <v>0.01310668294099989</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02586794378761001</v>
+        <v>0.02573326093039626</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2710617</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2655757</v>
+        <v>2653262</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2762609</v>
+        <v>2762206</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7792057104146212</v>
+        <v>0.7792057104146211</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7634351840035214</v>
+        <v>0.7627179371602483</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7941515628967027</v>
+        <v>0.7940355982775607</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3485</v>
@@ -9655,19 +9655,19 @@
         <v>2547730</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2500221</v>
+        <v>2497454</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2599006</v>
+        <v>2593779</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.69020025161587</v>
+        <v>0.6902002516158701</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6773297973972655</v>
+        <v>0.6765801521487723</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7040912607202751</v>
+        <v>0.702675341259684</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5993</v>
@@ -9676,19 +9676,19 @@
         <v>5258348</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5185054</v>
+        <v>5188801</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5327158</v>
+        <v>5325516</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7333834269772592</v>
+        <v>0.7333834269772593</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7231610352610709</v>
+        <v>0.7236837304713436</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7429803365726709</v>
+        <v>0.7427513712137074</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>304199</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>270656</v>
+        <v>270852</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>343408</v>
+        <v>341100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08744640772644015</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0778038311212299</v>
+        <v>0.07786025909272053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09871759848660144</v>
+        <v>0.09805403054950544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>619</v>
@@ -9726,19 +9726,19 @@
         <v>397289</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>368598</v>
+        <v>366969</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>433225</v>
+        <v>430289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1076286566027398</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09985623573825546</v>
+        <v>0.09941476369541791</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1173640367683263</v>
+        <v>0.1165686329390759</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>941</v>
@@ -9747,19 +9747,19 @@
         <v>701488</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>652616</v>
+        <v>657012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>753653</v>
+        <v>750621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09783674491355833</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09102060447606103</v>
+        <v>0.0916337282219027</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1051122250416946</v>
+        <v>0.1046892880229198</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>283449</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>250712</v>
+        <v>249268</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>320679</v>
+        <v>316578</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08148133205040468</v>
+        <v>0.08148133205040467</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07207069938388656</v>
+        <v>0.07165556457518697</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09218389898462648</v>
+        <v>0.09100489645260114</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>737</v>
@@ -9797,19 +9797,19 @@
         <v>471079</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>435297</v>
+        <v>436559</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>506860</v>
+        <v>507849</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1276190517363197</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1179253840134158</v>
+        <v>0.1182673659532198</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1373122959884959</v>
+        <v>0.137580401294507</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1040</v>
@@ -9818,19 +9818,19 @@
         <v>754528</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>711292</v>
+        <v>708315</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>805916</v>
+        <v>800114</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1052342085271362</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09920417563178095</v>
+        <v>0.0987889334056116</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1124013975350023</v>
+        <v>0.1115921730798485</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>105003</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86769</v>
+        <v>86541</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>125439</v>
+        <v>125247</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03018468452479489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02494304752376437</v>
+        <v>0.02487735861896563</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03605917577286499</v>
+        <v>0.03600395628038427</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>265</v>
@@ -9868,19 +9868,19 @@
         <v>160683</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>142039</v>
+        <v>142611</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>182201</v>
+        <v>181888</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04353038931188415</v>
+        <v>0.04353038931188417</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03847947541444383</v>
+        <v>0.03863453648738376</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04935972468048364</v>
+        <v>0.04927491549898991</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>385</v>
@@ -9889,19 +9889,19 @@
         <v>265687</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>241214</v>
+        <v>237840</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>294836</v>
+        <v>293566</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03705539420573798</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03364220300765101</v>
+        <v>0.03317164284022689</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0411208304772901</v>
+        <v>0.04094368202665477</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>75425</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60073</v>
+        <v>60530</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95254</v>
+        <v>95125</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02168186528373921</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01726872272741358</v>
+        <v>0.01740013712904311</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02738224929626715</v>
+        <v>0.02734496116184434</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>191</v>
@@ -9939,19 +9939,19 @@
         <v>114510</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>97653</v>
+        <v>99442</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>131649</v>
+        <v>133415</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.03102165073318628</v>
+        <v>0.03102165073318629</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02645491388845547</v>
+        <v>0.02693972473176539</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03566479484552607</v>
+        <v>0.03614326900909998</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>276</v>
@@ -9960,19 +9960,19 @@
         <v>189935</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>167585</v>
+        <v>167182</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>217036</v>
+        <v>215939</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02649022537630824</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02337314557652331</v>
+        <v>0.02331692857910023</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03027005471789815</v>
+        <v>0.03011714599390738</v>
       </c>
     </row>
     <row r="33">
